--- a/selfstudy_timeline.xlsx
+++ b/selfstudy_timeline.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kryherd/DS_self-study/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAB6B3E-0C65-2740-8921-59CCC750EC09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26621"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="29180" yWindow="3640" windowWidth="18080" windowHeight="17440" xr2:uid="{0DE1A438-CC64-4D4C-8BFE-DB0F9CE6D4FD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="R for Data Science" sheetId="1" r:id="rId1"/>
     <sheet name="Advanced R" sheetId="2" r:id="rId2"/>
     <sheet name="MAPR Hadoop &amp; Spark" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -224,8 +221,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,6 +234,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -259,16 +264,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -328,7 +339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -380,7 +391,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -574,28 +585,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8758796-903F-B546-9C92-605BBF6DE3F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +623,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>5</v>
       </c>
@@ -625,8 +636,11 @@
       <c r="D2" s="2">
         <v>43416</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="2">
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>7</v>
       </c>
@@ -639,8 +653,11 @@
       <c r="D3" s="2">
         <v>43416</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="2">
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>8</v>
       </c>
@@ -653,8 +670,11 @@
       <c r="D4" s="2">
         <v>43416</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="2">
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>10</v>
       </c>
@@ -668,7 +688,7 @@
         <v>43417</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>11</v>
       </c>
@@ -682,7 +702,7 @@
         <v>43417</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>12</v>
       </c>
@@ -696,7 +716,7 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>13</v>
       </c>
@@ -710,7 +730,7 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>14</v>
       </c>
@@ -724,7 +744,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>15</v>
       </c>
@@ -738,7 +758,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>16</v>
       </c>
@@ -752,7 +772,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>18</v>
       </c>
@@ -766,7 +786,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>19</v>
       </c>
@@ -780,7 +800,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>20</v>
       </c>
@@ -794,7 +814,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>21</v>
       </c>
@@ -808,7 +828,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>23</v>
       </c>
@@ -822,7 +842,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>24</v>
       </c>
@@ -836,7 +856,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>25</v>
       </c>
@@ -850,7 +870,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>27</v>
       </c>
@@ -864,7 +884,7 @@
         <v>43430</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>28</v>
       </c>
@@ -878,7 +898,7 @@
         <v>43430</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>29</v>
       </c>
@@ -892,7 +912,7 @@
         <v>43430</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>30</v>
       </c>
@@ -908,24 +928,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B2101A-2C81-704C-B84B-D7C9561FB692}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -942,7 +968,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>2</v>
       </c>
@@ -956,7 +982,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>3</v>
       </c>
@@ -970,7 +996,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>4</v>
       </c>
@@ -984,7 +1010,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>5</v>
       </c>
@@ -998,7 +1024,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1012,7 +1038,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1026,7 +1052,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1040,7 +1066,7 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1054,7 +1080,7 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1068,7 +1094,7 @@
         <v>43434</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1082,7 +1108,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1096,7 +1122,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1110,7 +1136,7 @@
         <v>43438</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1124,7 +1150,7 @@
         <v>43441</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1138,7 +1164,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1152,7 +1178,7 @@
         <v>43445</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1166,7 +1192,7 @@
         <v>43448</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1180,7 +1206,7 @@
         <v>43451</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>19</v>
       </c>
@@ -1194,7 +1220,7 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>29</v>
       </c>
@@ -1208,7 +1234,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>21</v>
       </c>
@@ -1222,7 +1248,7 @@
         <v>43104</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>22</v>
       </c>
@@ -1236,7 +1262,7 @@
         <v>43107</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1252,23 +1278,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B11FFF-E31A-3348-8560-85F426603C28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1276,7 +1307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1284,7 +1315,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1292,7 +1323,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1300,7 +1331,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1308,7 +1339,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1316,7 +1347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1324,7 +1355,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1332,7 +1363,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1340,7 +1371,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1348,7 +1379,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1356,7 +1387,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1364,7 +1395,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1372,7 +1403,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1380,7 +1411,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1388,7 +1419,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1396,7 +1427,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1406,23 +1437,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{31E23687-6822-764D-9CCE-4FF17CEFBA01}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{DB7AA437-7EDC-FF4D-8AE2-923EECA6CE79}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{901FC969-0DA6-5D47-8905-6522DF3C7E1D}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{79F97DCB-1CD8-914D-B3C7-44C27D2885D1}"/>
-    <hyperlink ref="B6" r:id="rId5" display="http://learn.mapr.com/dev-320-hbase-data-model-and-architecture" xr:uid="{4AD96D48-DCF0-F848-A9F3-883679BEA61A}"/>
-    <hyperlink ref="B7" r:id="rId6" display="http://learn.mapr.com/dev-325-hbase-schema-design" xr:uid="{2BBC3341-8C9B-344C-B1FD-02A2D2EB0215}"/>
-    <hyperlink ref="B8" r:id="rId7" display="http://learn.mapr.com/dev-330-developing-hbase-applications-basics" xr:uid="{CB27F94D-1E81-414C-8EA8-2D87ED3D7A04}"/>
-    <hyperlink ref="B9" r:id="rId8" display="http://learn.mapr.com/dev-335-developing-hbase-applications-advanced" xr:uid="{27D86C6C-841C-9B44-A290-BBA4108AF7F0}"/>
-    <hyperlink ref="B10" r:id="rId9" display="http://learn.mapr.com/dev-340-apache-hbase-bulk-loading-performance-and-security" xr:uid="{F2629599-FD38-494B-A5C0-C09318464B04}"/>
-    <hyperlink ref="B11" r:id="rId10" display="http://learn.mapr.com/dev-360-apache-spark-essentials" xr:uid="{4FFE5279-D4A1-9343-8139-747E648B5FCF}"/>
-    <hyperlink ref="B12" r:id="rId11" display="http://learn.mapr.com/dev-361-build-and-monitor-apache-spark-applications" xr:uid="{8C383C83-294D-C943-91F8-C3CE93012303}"/>
-    <hyperlink ref="B13" r:id="rId12" display="http://learn.mapr.com/dev-362-create-data-pipelines-using-apache-spark" xr:uid="{998E705C-6025-1C4A-8D22-90B75685666B}"/>
-    <hyperlink ref="B14" r:id="rId13" display="http://learn.mapr.com/da-410-apache-drill-essentials" xr:uid="{BD7F6B08-D232-5E4B-B202-40264F67A368}"/>
-    <hyperlink ref="B15" r:id="rId14" display="http://learn.mapr.com/da-415-apache-drill-architecture" xr:uid="{BBFA2912-CCD9-DD4A-9ACD-50DB3F4934A6}"/>
-    <hyperlink ref="B16" r:id="rId15" display="http://learn.mapr.com/da-440-apache-hive-essentials" xr:uid="{C8E583C6-434C-1241-8620-323954DE1664}"/>
-    <hyperlink ref="B17" r:id="rId16" display="http://learn.mapr.com/da-450-apache-pig-essentials" xr:uid="{41F2FB76-2D3C-E843-BD2B-B770B78D0B9F}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5" display="http://learn.mapr.com/dev-320-hbase-data-model-and-architecture"/>
+    <hyperlink ref="B7" r:id="rId6" display="http://learn.mapr.com/dev-325-hbase-schema-design"/>
+    <hyperlink ref="B8" r:id="rId7" display="http://learn.mapr.com/dev-330-developing-hbase-applications-basics"/>
+    <hyperlink ref="B9" r:id="rId8" display="http://learn.mapr.com/dev-335-developing-hbase-applications-advanced"/>
+    <hyperlink ref="B10" r:id="rId9" display="http://learn.mapr.com/dev-340-apache-hbase-bulk-loading-performance-and-security"/>
+    <hyperlink ref="B11" r:id="rId10" display="http://learn.mapr.com/dev-360-apache-spark-essentials"/>
+    <hyperlink ref="B12" r:id="rId11" display="http://learn.mapr.com/dev-361-build-and-monitor-apache-spark-applications"/>
+    <hyperlink ref="B13" r:id="rId12" display="http://learn.mapr.com/dev-362-create-data-pipelines-using-apache-spark"/>
+    <hyperlink ref="B14" r:id="rId13" display="http://learn.mapr.com/da-410-apache-drill-essentials"/>
+    <hyperlink ref="B15" r:id="rId14" display="http://learn.mapr.com/da-415-apache-drill-architecture"/>
+    <hyperlink ref="B16" r:id="rId15" display="http://learn.mapr.com/da-440-apache-hive-essentials"/>
+    <hyperlink ref="B17" r:id="rId16" display="http://learn.mapr.com/da-450-apache-pig-essentials"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/selfstudy_timeline.xlsx
+++ b/selfstudy_timeline.xlsx
@@ -264,9 +264,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -276,10 +277,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -585,7 +587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -596,7 +598,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -687,6 +689,9 @@
       <c r="D5" s="2">
         <v>43417</v>
       </c>
+      <c r="E5" s="2">
+        <v>43431</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
@@ -700,6 +705,9 @@
       </c>
       <c r="D6" s="2">
         <v>43417</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43431</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/selfstudy_timeline.xlsx
+++ b/selfstudy_timeline.xlsx
@@ -587,7 +587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -598,7 +598,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -722,6 +722,9 @@
       </c>
       <c r="D7" s="2">
         <v>43420</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43437</v>
       </c>
     </row>
     <row r="8" spans="1:5">
